--- a/Correlations_in_human/data/Data_for_correlations.xlsx
+++ b/Correlations_in_human/data/Data_for_correlations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Continent</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Calcium</t>
   </si>
   <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -220,7 +223,7 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Australia</t>
@@ -608,15 +611,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -642,13 +645,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -668,13 +674,16 @@
       <c r="I2">
         <v>636</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>2669.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -697,13 +706,16 @@
       <c r="I3">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>3141.316666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>102</v>
@@ -726,13 +738,16 @@
       <c r="I4">
         <v>338</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>2182.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>149</v>
@@ -746,13 +761,19 @@
       <c r="F5">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>1835.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>122</v>
@@ -775,13 +796,16 @@
       <c r="I6">
         <v>429</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>2434.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>59</v>
@@ -801,13 +825,16 @@
       <c r="I7">
         <v>342</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>2983.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>165</v>
@@ -821,19 +848,25 @@
       <c r="F8">
         <v>15.3</v>
       </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
       <c r="H8">
         <v>59.1</v>
       </c>
       <c r="I8">
         <v>533</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>1808.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>114</v>
@@ -857,12 +890,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>48</v>
@@ -882,13 +915,16 @@
       <c r="I10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>2103.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>191</v>
@@ -902,19 +938,25 @@
       <c r="F11">
         <v>-0.1</v>
       </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
       <c r="H11">
         <v>29.1</v>
       </c>
       <c r="I11">
         <v>788</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>1972.7875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>156</v>
@@ -928,16 +970,22 @@
       <c r="F12">
         <v>30.3</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="I12">
         <v>794</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>2022.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>149</v>
@@ -951,19 +999,25 @@
       <c r="F13">
         <v>11.1</v>
       </c>
+      <c r="G13">
+        <v>38</v>
+      </c>
       <c r="H13">
         <v>46.1</v>
       </c>
       <c r="I13">
         <v>483</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>2196.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>186</v>
@@ -974,19 +1028,25 @@
       <c r="E14">
         <v>264</v>
       </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
       <c r="H14">
         <v>76.5</v>
       </c>
       <c r="I14">
         <v>587</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>1886.866666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>91</v>
@@ -1004,18 +1064,21 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>19.75115914786967</v>
+        <v>11.78168362023996</v>
       </c>
       <c r="I15">
         <v>313</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>2175.025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>198</v>
@@ -1038,13 +1101,16 @@
       <c r="I16">
         <v>773</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>136</v>
@@ -1067,13 +1133,16 @@
       <c r="I17">
         <v>728</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>135</v>
@@ -1093,13 +1162,16 @@
       <c r="I18">
         <v>965</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>221</v>
@@ -1122,13 +1194,16 @@
       <c r="I19">
         <v>782</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>242</v>
@@ -1151,13 +1226,16 @@
       <c r="I20">
         <v>958</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>147</v>
@@ -1180,13 +1258,16 @@
       <c r="I21">
         <v>1097</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>101</v>
@@ -1209,13 +1290,16 @@
       <c r="I22">
         <v>877</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>147</v>
@@ -1238,13 +1322,16 @@
       <c r="I23">
         <v>1068</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>136</v>
@@ -1267,13 +1354,16 @@
       <c r="I24">
         <v>942</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>207</v>
@@ -1293,13 +1383,16 @@
       <c r="I25">
         <v>673</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>158</v>
@@ -1322,13 +1415,16 @@
       <c r="I26">
         <v>1233</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <v>103</v>
@@ -1351,13 +1447,16 @@
       <c r="I27">
         <v>1080</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>144</v>
@@ -1380,13 +1479,16 @@
       <c r="I28">
         <v>765</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>156</v>
@@ -1403,13 +1505,16 @@
       <c r="G29">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>138</v>
@@ -1426,13 +1531,16 @@
       <c r="G30">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>97</v>
@@ -1455,13 +1563,16 @@
       <c r="I31">
         <v>1102</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>281</v>
@@ -1484,13 +1595,16 @@
       <c r="I32">
         <v>488</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>112</v>
@@ -1510,13 +1624,16 @@
       <c r="H33">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>103</v>
@@ -1536,13 +1653,16 @@
       <c r="I34">
         <v>923</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>144</v>
@@ -1559,13 +1679,16 @@
       <c r="G35">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>88</v>
@@ -1576,16 +1699,22 @@
       <c r="E36">
         <v>139</v>
       </c>
+      <c r="G36">
+        <v>45</v>
+      </c>
       <c r="I36">
         <v>838</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>226</v>
@@ -1602,16 +1731,19 @@
       <c r="G37">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>349</v>
@@ -1622,13 +1754,16 @@
       <c r="G38">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>74</v>
@@ -1646,18 +1781,21 @@
         <v>40</v>
       </c>
       <c r="H39">
-        <v>49.9</v>
+        <v>16.87638157894737</v>
       </c>
       <c r="I39">
         <v>789</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>2755.333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40">
         <v>211</v>
@@ -1675,18 +1813,21 @@
         <v>59</v>
       </c>
       <c r="H40">
-        <v>9.726983503534957</v>
+        <v>8.51435409408899</v>
       </c>
       <c r="I40">
         <v>992</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>1871.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>187</v>
@@ -1709,13 +1850,16 @@
       <c r="I41">
         <v>1067</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>111</v>
@@ -1732,13 +1876,16 @@
       <c r="G42">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>2333.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>140</v>
@@ -1756,15 +1903,21 @@
         <v>51</v>
       </c>
       <c r="H43">
-        <v>24.04444444444445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>8.314980732177265</v>
+      </c>
+      <c r="I43">
+        <v>994</v>
+      </c>
+      <c r="J43">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44">
         <v>124</v>
@@ -1784,13 +1937,16 @@
       <c r="I44">
         <v>427</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>2299.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>77</v>
@@ -1813,13 +1969,16 @@
       <c r="I45">
         <v>505</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>2204.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46">
         <v>85</v>
@@ -1839,13 +1998,16 @@
       <c r="I46">
         <v>702</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>2648.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47">
         <v>80</v>
@@ -1865,13 +2027,16 @@
       <c r="I47">
         <v>297</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>1589.683333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48">
         <v>35</v>
@@ -1891,13 +2056,16 @@
       <c r="I48">
         <v>384</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>1909.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49">
         <v>122</v>
@@ -1917,13 +2085,16 @@
       <c r="I49">
         <v>805</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>2596.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50">
         <v>45</v>
@@ -1940,13 +2111,16 @@
       <c r="G50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>2895.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>272</v>
@@ -1960,19 +2134,25 @@
       <c r="F51">
         <v>24.4</v>
       </c>
+      <c r="G51">
+        <v>35</v>
+      </c>
       <c r="H51">
         <v>16.04116379310345</v>
       </c>
       <c r="I51">
         <v>859</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>2826.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>131</v>
@@ -1995,13 +2175,16 @@
       <c r="I52">
         <v>492</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <v>114</v>
@@ -2025,12 +2208,12 @@
         <v>856</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>174</v>
@@ -2051,12 +2234,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>114</v>
@@ -2077,12 +2260,12 @@
         <v>13.32569169960474</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>66</v>
@@ -2096,16 +2279,22 @@
       <c r="F56">
         <v>23.1</v>
       </c>
+      <c r="G56">
+        <v>34</v>
+      </c>
       <c r="I56">
         <v>672</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>3155.466666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <v>236</v>
@@ -2122,13 +2311,16 @@
       <c r="G57">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>3493.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <v>77</v>
@@ -2148,13 +2340,16 @@
       <c r="H58">
         <v>31.62343529411764</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>3236.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59">
         <v>41</v>
@@ -2174,13 +2369,16 @@
       <c r="H59">
         <v>40.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>3049.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <v>136</v>
@@ -2203,13 +2401,16 @@
       <c r="I60">
         <v>787</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>2028.044444444445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>155</v>
@@ -2223,16 +2424,22 @@
       <c r="F61">
         <v>14.9</v>
       </c>
+      <c r="G61">
+        <v>39</v>
+      </c>
       <c r="H61">
         <v>11.25590545603932</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="I61">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>105</v>
@@ -2255,13 +2462,16 @@
       <c r="I62">
         <v>805</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62">
+        <v>2836.833333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63">
         <v>99</v>
@@ -2283,6 +2493,9 @@
       </c>
       <c r="I63">
         <v>807</v>
+      </c>
+      <c r="J63">
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
